--- a/Vulnerability-Management-Levels.xlsx
+++ b/Vulnerability-Management-Levels.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="397">
   <si>
     <t>ASVS Item #</t>
   </si>
@@ -1067,33 +1067,6 @@
     <t>Verify that any exposed intents, content providers and broadcast receivers perform full data validation on input (Android).</t>
   </si>
   <si>
-    <t>Verify dedicated SOC</t>
-  </si>
-  <si>
-    <t>Verify alert on process creation (4688)</t>
-  </si>
-  <si>
-    <t>Verify alert on powershell.exe execution</t>
-  </si>
-  <si>
-    <t>Verify 24x7 SOC coverage</t>
-  </si>
-  <si>
-    <t>Verify weekly analysis of threat events</t>
-  </si>
-  <si>
-    <t>Verify documented IR framework</t>
-  </si>
-  <si>
-    <t>Verify periodic IR tabletop exercises</t>
-  </si>
-  <si>
-    <t>Verify process exists to handle malware infections</t>
-  </si>
-  <si>
-    <t>Verify internal and/or 3rd party threat intelligence exists</t>
-  </si>
-  <si>
     <t>Verify L2+ Vulnerability Management process is feeding SIEM</t>
   </si>
   <si>
@@ -1103,84 +1076,15 @@
     <t>Verify Dedicated InfoSec/Risk group exists</t>
   </si>
   <si>
-    <t>3. Monitoring</t>
-  </si>
-  <si>
-    <t>4. Incident Response</t>
-  </si>
-  <si>
-    <t>Verify mature IR framework (RACI, all business unit participation) exists</t>
-  </si>
-  <si>
-    <t>Verify periodic threat modeling exercises</t>
-  </si>
-  <si>
-    <t>Verify threat prioritization standard exists</t>
-  </si>
-  <si>
-    <t>Verify OOB communications process exists</t>
-  </si>
-  <si>
     <t>Verify communications rhythm exists with proper audience</t>
   </si>
   <si>
     <t>Verify target system characteristics are being documented</t>
   </si>
   <si>
-    <t>Verify incident characteristics are being documented</t>
-  </si>
-  <si>
-    <t>Verify obfuscation techniques are being documented</t>
-  </si>
-  <si>
     <t>Verify attack profile/characteristics are being documented</t>
   </si>
   <si>
-    <t>Verify attack sophistication is being documented</t>
-  </si>
-  <si>
-    <t>Verify attack vector is being documented</t>
-  </si>
-  <si>
-    <t>Verify number of systems targeted is being documented</t>
-  </si>
-  <si>
-    <t>Verify incident timeline is being documented</t>
-  </si>
-  <si>
-    <t>5. Documentation/Metrics</t>
-  </si>
-  <si>
-    <t>Verify threat modeling standard exists</t>
-  </si>
-  <si>
-    <t>Verify data targeted is being documented</t>
-  </si>
-  <si>
-    <t>Verify data compromised is being documented</t>
-  </si>
-  <si>
-    <t>Verify data exfiltrated is being documented</t>
-  </si>
-  <si>
-    <t>Verify incident tickets are being created in enterprise ticketing system</t>
-  </si>
-  <si>
-    <t>Verify periodic incidents by status metrics are being calculated</t>
-  </si>
-  <si>
-    <t>Verify mean time to compromise metrics are being calculated</t>
-  </si>
-  <si>
-    <t>Verify cost to disrupt (C2D) metrics are being calculated</t>
-  </si>
-  <si>
-    <t>Verify delta between C2D and derived adversary means metrics are being calculated</t>
-  </si>
-  <si>
-    <t>Verify adversary means and capabilities metrics are being calculated</t>
-  </si>
-  <si>
     <t>Verify data classification standard exists</t>
   </si>
   <si>
@@ -1259,19 +1163,64 @@
     <t>3. Scanning Tools</t>
   </si>
   <si>
-    <t>4. Scanning Frequency</t>
-  </si>
-  <si>
     <t>Verify deployment and use of open sourceand/or commercial vulnerability scanning tools</t>
   </si>
   <si>
-    <t>5. Patching Frequency</t>
-  </si>
-  <si>
     <t>4. Vulnerability Intelligence</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify </t>
+    <t>Verify MS vulnerability announcement emails are received</t>
+  </si>
+  <si>
+    <t>Verify open source/commercial 3rd party vulnerability feeds are received</t>
+  </si>
+  <si>
+    <t>Verify monthly review of MS security patches for potential escalations</t>
+  </si>
+  <si>
+    <t>Verify monthly review of non-MS application security patches for potential escalations</t>
+  </si>
+  <si>
+    <t>Verify monthly review of network security patches for potential escalations</t>
+  </si>
+  <si>
+    <t>Verify monthly review of SAP security patches for potential escalations</t>
+  </si>
+  <si>
+    <t>Verify patch review group has all appropriate business services represented</t>
+  </si>
+  <si>
+    <t>Verify vulnerability characteristics are being documented</t>
+  </si>
+  <si>
+    <t>Verify vulnerability announcement timeline is being documented</t>
+  </si>
+  <si>
+    <t>Verify number of systems with a specific vulnerability is being documented</t>
+  </si>
+  <si>
+    <t>Verify exploit sophistication is being documented</t>
+  </si>
+  <si>
+    <t>Verify periodic vulnerabilities by status metrics are being calculated</t>
+  </si>
+  <si>
+    <t>Verify mean time to remediation metrics are being calculated</t>
+  </si>
+  <si>
+    <t>Verify escalated security patch tickets are being created in enterprise ticketing system</t>
+  </si>
+  <si>
+    <t>5. Scanning Frequency</t>
+  </si>
+  <si>
+    <t>6. Patching Frequency</t>
+  </si>
+  <si>
+    <t>7. Patching</t>
+  </si>
+  <si>
+    <t>8. Documentation/Metrics</t>
   </si>
 </sst>
 </file>
@@ -4583,10 +4532,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4619,10 +4568,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B2" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -4636,7 +4585,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -4650,7 +4599,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
@@ -4664,7 +4613,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -4678,7 +4627,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
@@ -4692,7 +4641,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -4705,14 +4654,11 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>388</v>
-      </c>
       <c r="B8" t="s">
-        <v>389</v>
+        <v>348</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
@@ -4722,8 +4668,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>356</v>
+      </c>
       <c r="B9" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
@@ -4737,7 +4686,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>391</v>
+        <v>358</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
@@ -4751,7 +4700,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
@@ -4765,7 +4714,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>393</v>
+        <v>360</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
@@ -4779,10 +4728,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>394</v>
+        <v>361</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
@@ -4793,10 +4742,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>395</v>
+        <v>362</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
@@ -4806,11 +4755,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>408</v>
-      </c>
       <c r="B15" t="s">
-        <v>410</v>
+        <v>363</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
@@ -4824,10 +4770,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="B16" t="s">
-        <v>413</v>
+        <v>377</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
@@ -4840,8 +4786,14 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B17" t="s">
+        <v>379</v>
+      </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>9</v>
@@ -4851,6 +4803,9 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>380</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
@@ -4862,39 +4817,45 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>393</v>
+      </c>
+      <c r="B19" t="s">
+        <v>364</v>
+      </c>
       <c r="C19" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>365</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>409</v>
-      </c>
       <c r="B21" t="s">
-        <v>396</v>
+        <v>366</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>9</v>
@@ -4902,10 +4863,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>397</v>
+        <v>367</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>9</v>
@@ -4916,13 +4877,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>9</v>
@@ -4930,21 +4891,24 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>399</v>
+        <v>369</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>394</v>
+      </c>
       <c r="B25" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>16</v>
@@ -4958,30 +4922,27 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>411</v>
-      </c>
       <c r="B27" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>9</v>
@@ -4989,7 +4950,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>16</v>
@@ -5003,13 +4964,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>9</v>
@@ -5017,21 +4978,24 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>407</v>
+        <v>371</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>395</v>
+      </c>
       <c r="B31" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>16</v>
@@ -5045,30 +5009,27 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>357</v>
-      </c>
       <c r="B33" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>9</v>
@@ -5076,13 +5037,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>9</v>
@@ -5090,7 +5051,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>16</v>
@@ -5104,13 +5065,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>9</v>
@@ -5118,38 +5079,38 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
+        <v>392</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>396</v>
+      </c>
+      <c r="B38" t="s">
+        <v>386</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>349</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>354</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>358</v>
-      </c>
-      <c r="B39" t="s">
-        <v>350</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>16</v>
@@ -5163,13 +5124,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>9</v>
@@ -5177,10 +5138,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>9</v>
@@ -5191,7 +5152,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>16</v>
@@ -5205,13 +5166,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>9</v>
@@ -5219,13 +5180,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>9</v>
@@ -5233,298 +5194,15 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>360</v>
+        <v>391</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>361</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>362</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>363</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>377</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>372</v>
-      </c>
-      <c r="B50" t="s">
-        <v>365</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>364</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>371</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>370</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>369</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>368</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>367</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>366</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>374</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>375</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>376</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>378</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>379</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>380</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>382</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>381</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E65" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Vulnerability-Management-Levels.xlsx
+++ b/Vulnerability-Management-Levels.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="398">
   <si>
     <t>ASVS Item #</t>
   </si>
@@ -1221,6 +1221,9 @@
   </si>
   <si>
     <t>8. Documentation/Metrics</t>
+  </si>
+  <si>
+    <t>Verify defined asset ownership standard exists</t>
   </si>
 </sst>
 </file>
@@ -4532,10 +4535,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4668,25 +4671,25 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>397</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>356</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>357</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>358</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
@@ -4700,7 +4703,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
@@ -4714,7 +4717,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
@@ -4728,7 +4731,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
@@ -4742,10 +4745,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
@@ -4756,24 +4759,21 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>362</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>363</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>376</v>
-      </c>
-      <c r="B16" t="s">
-        <v>377</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
@@ -4787,58 +4787,61 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>376</v>
+      </c>
+      <c r="B17" t="s">
+        <v>377</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>378</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>379</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>380</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>393</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>364</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>365</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>9</v>
@@ -4849,13 +4852,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>9</v>
@@ -4863,13 +4866,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>9</v>
@@ -4877,10 +4880,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>9</v>
@@ -4891,38 +4894,38 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>368</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>369</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>394</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>374</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>372</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>16</v>
@@ -4936,13 +4939,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>9</v>
@@ -4950,13 +4953,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>9</v>
@@ -4964,7 +4967,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>16</v>
@@ -4978,38 +4981,38 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>370</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>371</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="C31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>395</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>381</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>382</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>16</v>
@@ -5023,7 +5026,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>16</v>
@@ -5037,13 +5040,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>9</v>
@@ -5051,13 +5054,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>9</v>
@@ -5065,7 +5068,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>16</v>
@@ -5079,38 +5082,38 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
+        <v>345</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>392</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="C38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>396</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>386</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>349</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>16</v>
@@ -5124,7 +5127,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>16</v>
@@ -5138,7 +5141,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>16</v>
@@ -5152,7 +5155,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>16</v>
@@ -5166,7 +5169,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>16</v>
@@ -5180,13 +5183,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>9</v>
@@ -5194,15 +5197,29 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
+        <v>390</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>391</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="1" t="s">
+      <c r="C46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Vulnerability-Management-Levels.xlsx
+++ b/Vulnerability-Management-Levels.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="399">
   <si>
     <t>ASVS Item #</t>
   </si>
@@ -1224,6 +1224,9 @@
   </si>
   <si>
     <t>Verify defined asset ownership standard exists</t>
+  </si>
+  <si>
+    <t>Verify expired SSL certificate tracking metrics exist</t>
   </si>
 </sst>
 </file>
@@ -4535,10 +4538,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5223,6 +5226,20 @@
         <v>9</v>
       </c>
     </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>398</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Vulnerability-Management-Levels.xlsx
+++ b/Vulnerability-Management-Levels.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="401">
   <si>
     <t>ASVS Item #</t>
   </si>
@@ -1227,6 +1227,12 @@
   </si>
   <si>
     <t>Verify expired SSL certificate tracking metrics exist</t>
+  </si>
+  <si>
+    <t>Verify overall percentage of hosts with known and exploitable vulnerabilities are being calculated</t>
+  </si>
+  <si>
+    <t>Verify number of systems owned by business critical services with known exploitable vulnerabilities is being calculated</t>
   </si>
 </sst>
 </file>
@@ -4538,10 +4544,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:B47"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5240,6 +5246,34 @@
         <v>9</v>
       </c>
     </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>399</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>400</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
